--- a/DRL_Automated_Trading/results14/FRE.DE.xlsx
+++ b/DRL_Automated_Trading/results14/FRE.DE.xlsx
@@ -5100,25 +5100,25 @@
         <v>44315</v>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D146" t="n">
-        <v>76.97719599192249</v>
+        <v>24.52251255198825</v>
       </c>
       <c r="E146" t="n">
-        <v>22708</v>
+        <v>22709</v>
       </c>
       <c r="F146" t="n">
-        <v>894424.3687500185</v>
+        <v>894411.2987500186</v>
       </c>
       <c r="G146" t="n">
         <v>39.38468343993424</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>13.07</v>
       </c>
       <c r="I146" t="n">
-        <v>886684.7909582932</v>
+        <v>886737.2456417332</v>
       </c>
       <c r="J146" t="n">
         <v>0</v>
@@ -5135,13 +5135,13 @@
         <v>0</v>
       </c>
       <c r="D147" t="n">
-        <v>76.97719599192249</v>
+        <v>24.52251255198825</v>
       </c>
       <c r="E147" t="n">
-        <v>22708</v>
+        <v>22709</v>
       </c>
       <c r="F147" t="n">
-        <v>899436.6418986709</v>
+        <v>899423.7926258661</v>
       </c>
       <c r="G147" t="n">
         <v>39.60541063513647</v>
@@ -5150,7 +5150,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>886684.7909582932</v>
+        <v>886737.2456417332</v>
       </c>
       <c r="J147" t="n">
         <v>0</v>
@@ -5167,22 +5167,22 @@
         <v>1</v>
       </c>
       <c r="D148" t="n">
-        <v>23.74752166619589</v>
+        <v>24.52251255198825</v>
       </c>
       <c r="E148" t="n">
         <v>22709</v>
       </c>
       <c r="F148" t="n">
-        <v>912009.7917845914</v>
+        <v>912010.5667754771</v>
       </c>
       <c r="G148" t="n">
         <v>40.15967432572659</v>
       </c>
       <c r="H148" t="n">
-        <v>13.07</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>886738.0206326189</v>
+        <v>886737.2456417332</v>
       </c>
       <c r="J148" t="n">
         <v>0</v>
@@ -5199,13 +5199,13 @@
         <v>1</v>
       </c>
       <c r="D149" t="n">
-        <v>23.74752166619589</v>
+        <v>24.52251255198825</v>
       </c>
       <c r="E149" t="n">
         <v>22709</v>
       </c>
       <c r="F149" t="n">
-        <v>911174.4115415816</v>
+        <v>911175.1865324674</v>
       </c>
       <c r="G149" t="n">
         <v>40.12288801884343</v>
@@ -5214,7 +5214,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>886738.0206326189</v>
+        <v>886737.2456417332</v>
       </c>
       <c r="J149" t="n">
         <v>0</v>
@@ -5231,13 +5231,13 @@
         <v>-1</v>
       </c>
       <c r="D150" t="n">
-        <v>914954.9168456837</v>
+        <v>914955.6918365695</v>
       </c>
       <c r="E150" t="n">
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>914954.9168456837</v>
+        <v>914955.6918365695</v>
       </c>
       <c r="G150" t="n">
         <v>40.31663435614838</v>
@@ -5249,7 +5249,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>28193.14869139856</v>
+        <v>28193.92368228431</v>
       </c>
     </row>
     <row r="151">
@@ -5263,13 +5263,13 @@
         <v>1</v>
       </c>
       <c r="D151" t="n">
-        <v>9246.096935054717</v>
+        <v>9246.871925940468</v>
       </c>
       <c r="E151" t="n">
         <v>22287</v>
       </c>
       <c r="F151" t="n">
-        <v>914341.9093582298</v>
+        <v>914342.6843491156</v>
       </c>
       <c r="G151" t="n">
         <v>40.61093069606385</v>
@@ -5295,13 +5295,13 @@
         <v>0</v>
       </c>
       <c r="D152" t="n">
-        <v>9246.096935054717</v>
+        <v>9246.871925940468</v>
       </c>
       <c r="E152" t="n">
         <v>22287</v>
       </c>
       <c r="F152" t="n">
-        <v>917621.5215164254</v>
+        <v>917622.2965073112</v>
       </c>
       <c r="G152" t="n">
         <v>40.758084290455</v>
@@ -5324,28 +5324,28 @@
         <v>44326</v>
       </c>
       <c r="C153" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D153" t="n">
-        <v>937272.8254251711</v>
+        <v>9246.871925940468</v>
       </c>
       <c r="E153" t="n">
-        <v>0</v>
+        <v>22287</v>
       </c>
       <c r="F153" t="n">
-        <v>937272.8254251711</v>
+        <v>937900.7427385444</v>
       </c>
       <c r="G153" t="n">
         <v>41.66796207711239</v>
       </c>
       <c r="H153" t="n">
-        <v>627.1423224875624</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
+        <v>905708.819910629</v>
       </c>
       <c r="J153" t="n">
-        <v>22317.90857948735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -5359,13 +5359,13 @@
         <v>0</v>
       </c>
       <c r="D154" t="n">
-        <v>937272.8254251711</v>
+        <v>9246.871925940468</v>
       </c>
       <c r="E154" t="n">
-        <v>0</v>
+        <v>22287</v>
       </c>
       <c r="F154" t="n">
-        <v>937272.8254251711</v>
+        <v>935058.3882896816</v>
       </c>
       <c r="G154" t="n">
         <v>41.54042788907171</v>
@@ -5374,7 +5374,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>905708.819910629</v>
       </c>
       <c r="J154" t="n">
         <v>0</v>
@@ -5391,25 +5391,25 @@
         <v>-1</v>
       </c>
       <c r="D155" t="n">
-        <v>937272.8254251711</v>
+        <v>955245.4911508973</v>
       </c>
       <c r="E155" t="n">
         <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>937272.8254251711</v>
+        <v>955245.4911508973</v>
       </c>
       <c r="G155" t="n">
         <v>42.47483067059946</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>637.9319306933902</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
       <c r="J155" t="n">
-        <v>0</v>
+        <v>40289.79931432789</v>
       </c>
     </row>
     <row r="156">
@@ -5423,13 +5423,13 @@
         <v>0</v>
       </c>
       <c r="D156" t="n">
-        <v>937272.8254251711</v>
+        <v>955245.4911508973</v>
       </c>
       <c r="E156" t="n">
         <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>937272.8254251711</v>
+        <v>955245.4911508973</v>
       </c>
       <c r="G156" t="n">
         <v>42.82308821899537</v>
@@ -5455,13 +5455,13 @@
         <v>0</v>
       </c>
       <c r="D157" t="n">
-        <v>937272.8254251711</v>
+        <v>955245.4911508973</v>
       </c>
       <c r="E157" t="n">
         <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>937272.8254251711</v>
+        <v>955245.4911508973</v>
       </c>
       <c r="G157" t="n">
         <v>43.68881971896458</v>
@@ -5487,22 +5487,22 @@
         <v>1</v>
       </c>
       <c r="D158" t="n">
-        <v>9473.456555629064</v>
+        <v>9680.621886752115</v>
       </c>
       <c r="E158" t="n">
-        <v>21045</v>
+        <v>21448</v>
       </c>
       <c r="F158" t="n">
-        <v>936646.5715561707</v>
+        <v>954608.5843734053</v>
       </c>
       <c r="G158" t="n">
         <v>44.05669351392453</v>
       </c>
       <c r="H158" t="n">
-        <v>626.253869000325</v>
+        <v>636.906777491992</v>
       </c>
       <c r="I158" t="n">
-        <v>927799.368869542</v>
+        <v>945564.8692641453</v>
       </c>
       <c r="J158" t="n">
         <v>0</v>
@@ -5519,13 +5519,13 @@
         <v>0</v>
       </c>
       <c r="D159" t="n">
-        <v>9473.456555629064</v>
+        <v>9680.621886752115</v>
       </c>
       <c r="E159" t="n">
-        <v>21045</v>
+        <v>21448</v>
       </c>
       <c r="F159" t="n">
-        <v>939640.1146157966</v>
+        <v>957659.4521112459</v>
       </c>
       <c r="G159" t="n">
         <v>44.19893837301818</v>
@@ -5534,7 +5534,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>927799.368869542</v>
+        <v>945564.8692641453</v>
       </c>
       <c r="J159" t="n">
         <v>0</v>
@@ -5551,13 +5551,13 @@
         <v>0</v>
       </c>
       <c r="D160" t="n">
-        <v>9473.456555629064</v>
+        <v>9680.621886752115</v>
       </c>
       <c r="E160" t="n">
-        <v>21045</v>
+        <v>21448</v>
       </c>
       <c r="F160" t="n">
-        <v>925549.8222547438</v>
+        <v>943299.3385184753</v>
       </c>
       <c r="G160" t="n">
         <v>43.52940678066594</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>927799.368869542</v>
+        <v>945564.8692641453</v>
       </c>
       <c r="J160" t="n">
         <v>0</v>
@@ -5583,13 +5583,13 @@
         <v>0</v>
       </c>
       <c r="D161" t="n">
-        <v>9473.456555629064</v>
+        <v>9680.621886752115</v>
       </c>
       <c r="E161" t="n">
-        <v>21045</v>
+        <v>21448</v>
       </c>
       <c r="F161" t="n">
-        <v>944285.2805766361</v>
+        <v>962393.5704067121</v>
       </c>
       <c r="G161" t="n">
         <v>44.41966376911414</v>
@@ -5598,7 +5598,7 @@
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>927799.368869542</v>
+        <v>945564.8692641453</v>
       </c>
       <c r="J161" t="n">
         <v>0</v>
@@ -5615,22 +5615,22 @@
         <v>1</v>
       </c>
       <c r="D162" t="n">
-        <v>71.0758241843823</v>
+        <v>97.32461943410708</v>
       </c>
       <c r="E162" t="n">
-        <v>21252</v>
+        <v>21659</v>
       </c>
       <c r="F162" t="n">
-        <v>960704.2510140577</v>
+        <v>979127.7190029023</v>
       </c>
       <c r="G162" t="n">
         <v>45.20201276067539</v>
       </c>
       <c r="H162" t="n">
-        <v>45.56408998487588</v>
+        <v>45.67257481550151</v>
       </c>
       <c r="I162" t="n">
-        <v>937201.7496009867</v>
+        <v>955148.1665314633</v>
       </c>
       <c r="J162" t="n">
         <v>0</v>
@@ -5647,13 +5647,13 @@
         <v>0</v>
       </c>
       <c r="D163" t="n">
-        <v>71.0758241843823</v>
+        <v>97.32461943410708</v>
       </c>
       <c r="E163" t="n">
-        <v>21252</v>
+        <v>21659</v>
       </c>
       <c r="F163" t="n">
-        <v>956039.1674455833</v>
+        <v>974373.2937718846</v>
       </c>
       <c r="G163" t="n">
         <v>44.98250007629395</v>
@@ -5662,7 +5662,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>937201.7496009867</v>
+        <v>955148.1665314633</v>
       </c>
       <c r="J163" t="n">
         <v>0</v>
@@ -5679,25 +5679,25 @@
         <v>-1</v>
       </c>
       <c r="D164" t="n">
-        <v>945519.3826577583</v>
+        <v>963653.3827484749</v>
       </c>
       <c r="E164" t="n">
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>945519.3826577583</v>
+        <v>963653.3827484749</v>
       </c>
       <c r="G164" t="n">
         <v>44.51749992370605</v>
       </c>
       <c r="H164" t="n">
-        <v>637.6015450271607</v>
+        <v>648.4727185085297</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
       <c r="J164" t="n">
-        <v>8246.557232587249</v>
+        <v>8407.891597577604</v>
       </c>
     </row>
     <row r="165">
@@ -5711,13 +5711,13 @@
         <v>0</v>
       </c>
       <c r="D165" t="n">
-        <v>945519.3826577583</v>
+        <v>963653.3827484749</v>
       </c>
       <c r="E165" t="n">
         <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>945519.3826577583</v>
+        <v>963653.3827484749</v>
       </c>
       <c r="G165" t="n">
         <v>44.22499847412109</v>
@@ -5743,13 +5743,13 @@
         <v>0</v>
       </c>
       <c r="D166" t="n">
-        <v>945519.3826577583</v>
+        <v>963653.3827484749</v>
       </c>
       <c r="E166" t="n">
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>945519.3826577583</v>
+        <v>963653.3827484749</v>
       </c>
       <c r="G166" t="n">
         <v>44.61249923706055</v>
@@ -5775,22 +5775,22 @@
         <v>1</v>
       </c>
       <c r="D167" t="n">
-        <v>9569.573066450097</v>
+        <v>9783.507596007985</v>
       </c>
       <c r="E167" t="n">
-        <v>21099</v>
+        <v>21503</v>
       </c>
       <c r="F167" t="n">
-        <v>944888.2414567241</v>
+        <v>963011.4959554593</v>
       </c>
       <c r="G167" t="n">
         <v>44.32999992370605</v>
       </c>
       <c r="H167" t="n">
-        <v>631.1412010341644</v>
+        <v>641.8867930156708</v>
       </c>
       <c r="I167" t="n">
-        <v>935949.8095913082</v>
+        <v>953869.8751524669</v>
       </c>
       <c r="J167" t="n">
         <v>0</v>
@@ -5807,13 +5807,13 @@
         <v>0</v>
       </c>
       <c r="D168" t="n">
-        <v>9569.573066450097</v>
+        <v>9783.507596007985</v>
       </c>
       <c r="E168" t="n">
-        <v>21099</v>
+        <v>21503</v>
       </c>
       <c r="F168" t="n">
-        <v>939086.0245053539</v>
+        <v>957098.1791582028</v>
       </c>
       <c r="G168" t="n">
         <v>44.05500030517578</v>
@@ -5822,7 +5822,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>935949.8095913082</v>
+        <v>953869.8751524669</v>
       </c>
       <c r="J168" t="n">
         <v>0</v>
@@ -5839,22 +5839,22 @@
         <v>1</v>
       </c>
       <c r="D169" t="n">
-        <v>88.68685221097655</v>
+        <v>83.06472562376851</v>
       </c>
       <c r="E169" t="n">
-        <v>21314</v>
+        <v>21723</v>
       </c>
       <c r="F169" t="n">
-        <v>935453.5817305985</v>
+        <v>953396.9246976239</v>
       </c>
       <c r="G169" t="n">
         <v>43.88500022888184</v>
       </c>
       <c r="H169" t="n">
-        <v>45.61116502952576</v>
+        <v>45.74282003021241</v>
       </c>
       <c r="I169" t="n">
-        <v>945430.6958055474</v>
+        <v>963570.3180228511</v>
       </c>
       <c r="J169" t="n">
         <v>0</v>
@@ -5871,13 +5871,13 @@
         <v>0</v>
       </c>
       <c r="D170" t="n">
-        <v>88.68685221097655</v>
+        <v>83.06472562376851</v>
       </c>
       <c r="E170" t="n">
-        <v>21314</v>
+        <v>21723</v>
       </c>
       <c r="F170" t="n">
-        <v>946270.4302260819</v>
+        <v>964421.3405682904</v>
       </c>
       <c r="G170" t="n">
         <v>44.39249992370605</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>945430.6958055474</v>
+        <v>963570.3180228511</v>
       </c>
       <c r="J170" t="n">
         <v>0</v>
@@ -5903,13 +5903,13 @@
         <v>0</v>
       </c>
       <c r="D171" t="n">
-        <v>88.68685221097655</v>
+        <v>83.06472562376851</v>
       </c>
       <c r="E171" t="n">
-        <v>21314</v>
+        <v>21723</v>
       </c>
       <c r="F171" t="n">
-        <v>952344.9169738236</v>
+        <v>970612.3922536237</v>
       </c>
       <c r="G171" t="n">
         <v>44.67749977111816</v>
@@ -5918,7 +5918,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>945430.6958055474</v>
+        <v>963570.3180228511</v>
       </c>
       <c r="J171" t="n">
         <v>0</v>
@@ -5935,13 +5935,13 @@
         <v>0</v>
       </c>
       <c r="D172" t="n">
-        <v>88.68685221097655</v>
+        <v>83.06472562376851</v>
       </c>
       <c r="E172" t="n">
-        <v>21314</v>
+        <v>21723</v>
       </c>
       <c r="F172" t="n">
-        <v>958952.2455909195</v>
+        <v>977346.5106522901</v>
       </c>
       <c r="G172" t="n">
         <v>44.98749923706055</v>
@@ -5950,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>945430.6958055474</v>
+        <v>963570.3180228511</v>
       </c>
       <c r="J172" t="n">
         <v>0</v>
@@ -5967,13 +5967,13 @@
         <v>0</v>
       </c>
       <c r="D173" t="n">
-        <v>88.68685221097655</v>
+        <v>83.06472562376851</v>
       </c>
       <c r="E173" t="n">
-        <v>21314</v>
+        <v>21723</v>
       </c>
       <c r="F173" t="n">
-        <v>961563.2398612442</v>
+        <v>980007.6079842908</v>
       </c>
       <c r="G173" t="n">
         <v>45.11000061035156</v>
@@ -5982,7 +5982,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>945430.6958055474</v>
+        <v>963570.3180228511</v>
       </c>
       <c r="J173" t="n">
         <v>0</v>
@@ -5999,13 +5999,13 @@
         <v>1</v>
       </c>
       <c r="D174" t="n">
-        <v>30.49685327909179</v>
+        <v>24.87472669188374</v>
       </c>
       <c r="E174" t="n">
-        <v>21315</v>
+        <v>21724</v>
       </c>
       <c r="F174" t="n">
-        <v>961763.2740864028</v>
+        <v>980211.7315229565</v>
       </c>
       <c r="G174" t="n">
         <v>45.11999893188477</v>
@@ -6014,7 +6014,7 @@
         <v>13.07</v>
       </c>
       <c r="I174" t="n">
-        <v>945488.8858044792</v>
+        <v>963628.508021783</v>
       </c>
       <c r="J174" t="n">
         <v>0</v>
@@ -6031,25 +6031,25 @@
         <v>-1</v>
       </c>
       <c r="D175" t="n">
-        <v>962128.1930751437</v>
+        <v>980584.9949365811</v>
       </c>
       <c r="E175" t="n">
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>962128.1930751437</v>
+        <v>980584.9949365811</v>
       </c>
       <c r="G175" t="n">
         <v>45.16750144958496</v>
       </c>
       <c r="H175" t="n">
-        <v>647.5971760387421</v>
+        <v>658.6812808944702</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
       <c r="J175" t="n">
-        <v>16608.81041738542</v>
+        <v>16931.61218810629</v>
       </c>
     </row>
     <row r="176">
@@ -6063,13 +6063,13 @@
         <v>0</v>
       </c>
       <c r="D176" t="n">
-        <v>962128.1930751437</v>
+        <v>980584.9949365811</v>
       </c>
       <c r="E176" t="n">
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>962128.1930751437</v>
+        <v>980584.9949365811</v>
       </c>
       <c r="G176" t="n">
         <v>45.27499961853027</v>
@@ -6095,13 +6095,13 @@
         <v>0</v>
       </c>
       <c r="D177" t="n">
-        <v>962128.1930751437</v>
+        <v>980584.9949365811</v>
       </c>
       <c r="E177" t="n">
         <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>962128.1930751437</v>
+        <v>980584.9949365811</v>
       </c>
       <c r="G177" t="n">
         <v>45.35999870300293</v>
@@ -6127,13 +6127,13 @@
         <v>0</v>
       </c>
       <c r="D178" t="n">
-        <v>962128.1930751437</v>
+        <v>980584.9949365811</v>
       </c>
       <c r="E178" t="n">
         <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>962128.1930751437</v>
+        <v>980584.9949365811</v>
       </c>
       <c r="G178" t="n">
         <v>45.34749984741211</v>
@@ -6159,22 +6159,22 @@
         <v>1</v>
       </c>
       <c r="D179" t="n">
-        <v>9736.743926574243</v>
+        <v>9937.5983299733</v>
       </c>
       <c r="E179" t="n">
-        <v>20866</v>
+        <v>21266</v>
       </c>
       <c r="F179" t="n">
-        <v>961487.1928058162</v>
+        <v>979933.0476669789</v>
       </c>
       <c r="G179" t="n">
         <v>45.61250114440918</v>
       </c>
       <c r="H179" t="n">
-        <v>641.0002693275452</v>
+        <v>651.9472696022034</v>
       </c>
       <c r="I179" t="n">
-        <v>952391.4491485695</v>
+        <v>970647.3966066078</v>
       </c>
       <c r="J179" t="n">
         <v>0</v>
@@ -6191,25 +6191,25 @@
         <v>-1</v>
       </c>
       <c r="D180" t="n">
-        <v>957248.9544395343</v>
+        <v>975614.9034564282</v>
       </c>
       <c r="E180" t="n">
         <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>957248.9544395343</v>
+        <v>975614.9034564282</v>
       </c>
       <c r="G180" t="n">
         <v>45.44000053405762</v>
       </c>
       <c r="H180" t="n">
-        <v>638.8406306861878</v>
+        <v>649.7462308143616</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
       <c r="J180" t="n">
-        <v>-4879.238635609392</v>
+        <v>-4970.091480152914</v>
       </c>
     </row>
     <row r="181">
@@ -6223,13 +6223,13 @@
         <v>-1</v>
       </c>
       <c r="D181" t="n">
-        <v>957248.9544395343</v>
+        <v>975614.9034564282</v>
       </c>
       <c r="E181" t="n">
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>957248.9544395343</v>
+        <v>975614.9034564282</v>
       </c>
       <c r="G181" t="n">
         <v>45.1299991607666</v>
@@ -6255,22 +6255,22 @@
         <v>1</v>
       </c>
       <c r="D182" t="n">
-        <v>9714.250125275765</v>
+        <v>9903.099108413373</v>
       </c>
       <c r="E182" t="n">
-        <v>21423</v>
+        <v>21834</v>
       </c>
       <c r="F182" t="n">
-        <v>956610.8664697277</v>
+        <v>974965.9157664333</v>
       </c>
       <c r="G182" t="n">
         <v>44.20000076293945</v>
       </c>
       <c r="H182" t="n">
-        <v>638.0879698066711</v>
+        <v>648.9876899948121</v>
       </c>
       <c r="I182" t="n">
-        <v>947534.7043142585</v>
+        <v>965711.8043480149</v>
       </c>
       <c r="J182" t="n">
         <v>0</v>
@@ -6287,25 +6287,25 @@
         <v>-1</v>
       </c>
       <c r="D183" t="n">
-        <v>955491.0289753822</v>
+        <v>973825.9361930058</v>
       </c>
       <c r="E183" t="n">
         <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>955491.0289753822</v>
+        <v>973825.9361930058</v>
       </c>
       <c r="G183" t="n">
         <v>44.17749977111816</v>
       </c>
       <c r="H183" t="n">
-        <v>637.7987465579987</v>
+        <v>648.6929180015564</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
       <c r="J183" t="n">
-        <v>-1757.925464152126</v>
+        <v>-1788.967263422441</v>
       </c>
     </row>
     <row r="184">
@@ -6319,22 +6319,22 @@
         <v>1</v>
       </c>
       <c r="D184" t="n">
-        <v>9683.351600382215</v>
+        <v>9846.299680505765</v>
       </c>
       <c r="E184" t="n">
-        <v>21390</v>
+        <v>21801</v>
       </c>
       <c r="F184" t="n">
-        <v>954853.9766003822</v>
+        <v>973177.9871805058</v>
       </c>
       <c r="G184" t="n">
         <v>44.1875</v>
       </c>
       <c r="H184" t="n">
-        <v>637.052375</v>
+        <v>647.9490125</v>
       </c>
       <c r="I184" t="n">
-        <v>945807.677375</v>
+        <v>963979.6365125</v>
       </c>
       <c r="J184" t="n">
         <v>0</v>
@@ -6351,25 +6351,25 @@
         <v>-1</v>
       </c>
       <c r="D185" t="n">
-        <v>953415.2723456406</v>
+        <v>971712.9828790741</v>
       </c>
       <c r="E185" t="n">
         <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>953415.2723456406</v>
+        <v>971712.9828790741</v>
       </c>
       <c r="G185" t="n">
         <v>44.14999961853027</v>
       </c>
       <c r="H185" t="n">
-        <v>636.5710951042175</v>
+        <v>647.4584850101471</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
       <c r="J185" t="n">
-        <v>-2075.756629741634</v>
+        <v>-2112.953313931706</v>
       </c>
     </row>
     <row r="186">
@@ -6383,13 +6383,13 @@
         <v>0</v>
       </c>
       <c r="D186" t="n">
-        <v>953415.2723456406</v>
+        <v>971712.9828790741</v>
       </c>
       <c r="E186" t="n">
         <v>0</v>
       </c>
       <c r="F186" t="n">
-        <v>953415.2723456406</v>
+        <v>971712.9828790741</v>
       </c>
       <c r="G186" t="n">
         <v>44.20499992370605</v>
@@ -6415,13 +6415,13 @@
         <v>0</v>
       </c>
       <c r="D187" t="n">
-        <v>953415.2723456406</v>
+        <v>971712.9828790741</v>
       </c>
       <c r="E187" t="n">
         <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>953415.2723456406</v>
+        <v>971712.9828790741</v>
       </c>
       <c r="G187" t="n">
         <v>44.35750007629395</v>
@@ -6447,13 +6447,13 @@
         <v>0</v>
       </c>
       <c r="D188" t="n">
-        <v>953415.2723456406</v>
+        <v>971712.9828790741</v>
       </c>
       <c r="E188" t="n">
         <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>953415.2723456406</v>
+        <v>971712.9828790741</v>
       </c>
       <c r="G188" t="n">
         <v>44.10249900817871</v>
@@ -6479,13 +6479,13 @@
         <v>-1</v>
       </c>
       <c r="D189" t="n">
-        <v>953415.2723456406</v>
+        <v>971712.9828790741</v>
       </c>
       <c r="E189" t="n">
         <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>953415.2723456406</v>
+        <v>971712.9828790741</v>
       </c>
       <c r="G189" t="n">
         <v>43.93000030517578</v>
@@ -6511,13 +6511,13 @@
         <v>0</v>
       </c>
       <c r="D190" t="n">
-        <v>953415.2723456406</v>
+        <v>971712.9828790741</v>
       </c>
       <c r="E190" t="n">
         <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>953415.2723456406</v>
+        <v>971712.9828790741</v>
       </c>
       <c r="G190" t="n">
         <v>44.45999908447266</v>
@@ -6543,13 +6543,13 @@
         <v>0</v>
       </c>
       <c r="D191" t="n">
-        <v>953415.2723456406</v>
+        <v>971712.9828790741</v>
       </c>
       <c r="E191" t="n">
         <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>953415.2723456406</v>
+        <v>971712.9828790741</v>
       </c>
       <c r="G191" t="n">
         <v>44.68500137329102</v>
@@ -6575,13 +6575,13 @@
         <v>-1</v>
       </c>
       <c r="D192" t="n">
-        <v>953415.2723456406</v>
+        <v>971712.9828790741</v>
       </c>
       <c r="E192" t="n">
         <v>0</v>
       </c>
       <c r="F192" t="n">
-        <v>953415.2723456406</v>
+        <v>971712.9828790741</v>
       </c>
       <c r="G192" t="n">
         <v>44.39249992370605</v>
@@ -6607,13 +6607,13 @@
         <v>-1</v>
       </c>
       <c r="D193" t="n">
-        <v>953415.2723456406</v>
+        <v>971712.9828790741</v>
       </c>
       <c r="E193" t="n">
         <v>0</v>
       </c>
       <c r="F193" t="n">
-        <v>953415.2723456406</v>
+        <v>971712.9828790741</v>
       </c>
       <c r="G193" t="n">
         <v>44.0575008392334</v>
@@ -6639,13 +6639,13 @@
         <v>0</v>
       </c>
       <c r="D194" t="n">
-        <v>953415.2723456406</v>
+        <v>971712.9828790741</v>
       </c>
       <c r="E194" t="n">
         <v>0</v>
       </c>
       <c r="F194" t="n">
-        <v>953415.2723456406</v>
+        <v>971712.9828790741</v>
       </c>
       <c r="G194" t="n">
         <v>43.93500137329102</v>
@@ -6671,22 +6671,22 @@
         <v>1</v>
       </c>
       <c r="D195" t="n">
-        <v>9647.076144337098</v>
+        <v>9854.8643904121</v>
       </c>
       <c r="E195" t="n">
-        <v>21545</v>
+        <v>21958</v>
       </c>
       <c r="F195" t="n">
-        <v>952779.4429255718</v>
+        <v>971066.3060140999</v>
       </c>
       <c r="G195" t="n">
         <v>43.77499961853027</v>
       </c>
       <c r="H195" t="n">
-        <v>635.8294200687409</v>
+        <v>646.6768649742127</v>
       </c>
       <c r="I195" t="n">
-        <v>943768.1962013035</v>
+        <v>961858.1184886619</v>
       </c>
       <c r="J195" t="n">
         <v>0</v>
@@ -6703,22 +6703,22 @@
         <v>1</v>
       </c>
       <c r="D196" t="n">
-        <v>63.92392016717562</v>
+        <v>94.98619912792027</v>
       </c>
       <c r="E196" t="n">
-        <v>21761</v>
+        <v>22178</v>
       </c>
       <c r="F196" t="n">
-        <v>960920.8523564464</v>
+        <v>979364.5491263741</v>
       </c>
       <c r="G196" t="n">
         <v>44.15499877929688</v>
       </c>
       <c r="H196" t="n">
-        <v>45.67248784179688</v>
+        <v>45.77845983886719</v>
       </c>
       <c r="I196" t="n">
-        <v>953351.3484254734</v>
+        <v>971617.9966799461</v>
       </c>
       <c r="J196" t="n">
         <v>0</v>
@@ -6735,13 +6735,13 @@
         <v>0</v>
       </c>
       <c r="D197" t="n">
-        <v>63.92392016717562</v>
+        <v>94.98619912792027</v>
       </c>
       <c r="E197" t="n">
-        <v>21761</v>
+        <v>22178</v>
       </c>
       <c r="F197" t="n">
-        <v>970114.8881383068</v>
+        <v>988734.767662751</v>
       </c>
       <c r="G197" t="n">
         <v>44.57749938964844</v>
@@ -6750,7 +6750,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="n">
-        <v>953351.3484254734</v>
+        <v>971617.9966799461</v>
       </c>
       <c r="J197" t="n">
         <v>0</v>
@@ -6767,13 +6767,13 @@
         <v>0</v>
       </c>
       <c r="D198" t="n">
-        <v>63.92392016717562</v>
+        <v>94.98619912792027</v>
       </c>
       <c r="E198" t="n">
-        <v>21761</v>
+        <v>22178</v>
       </c>
       <c r="F198" t="n">
-        <v>973868.6739201671</v>
+        <v>992560.486199128</v>
       </c>
       <c r="G198" t="n">
         <v>44.75</v>
@@ -6782,7 +6782,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="n">
-        <v>953351.3484254734</v>
+        <v>971617.9966799461</v>
       </c>
       <c r="J198" t="n">
         <v>0</v>
@@ -6799,13 +6799,13 @@
         <v>0</v>
       </c>
       <c r="D199" t="n">
-        <v>63.92392016717562</v>
+        <v>94.98619912792027</v>
       </c>
       <c r="E199" t="n">
-        <v>21761</v>
+        <v>22178</v>
       </c>
       <c r="F199" t="n">
-        <v>983987.5422406322</v>
+        <v>1002873.259583222</v>
       </c>
       <c r="G199" t="n">
         <v>45.21500015258789</v>
@@ -6814,7 +6814,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="n">
-        <v>953351.3484254734</v>
+        <v>971617.9966799461</v>
       </c>
       <c r="J199" t="n">
         <v>0</v>
@@ -6831,13 +6831,13 @@
         <v>0</v>
       </c>
       <c r="D200" t="n">
-        <v>63.92392016717562</v>
+        <v>94.98619912792027</v>
       </c>
       <c r="E200" t="n">
-        <v>21761</v>
+        <v>22178</v>
       </c>
       <c r="F200" t="n">
-        <v>981865.8065552837</v>
+        <v>1000710.865666138</v>
       </c>
       <c r="G200" t="n">
         <v>45.11749839782715</v>
@@ -6846,7 +6846,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="n">
-        <v>953351.3484254734</v>
+        <v>971617.9966799461</v>
       </c>
       <c r="J200" t="n">
         <v>0</v>
@@ -6863,25 +6863,25 @@
         <v>-1</v>
       </c>
       <c r="D201" t="n">
-        <v>973975.6157706943</v>
+        <v>992670.8177790642</v>
       </c>
       <c r="E201" t="n">
         <v>0</v>
       </c>
       <c r="F201" t="n">
-        <v>973975.6157706943</v>
+        <v>992670.8177790642</v>
       </c>
       <c r="G201" t="n">
         <v>44.78499984741211</v>
       </c>
       <c r="H201" t="n">
-        <v>654.689829007721</v>
+        <v>665.8950359695435</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
       <c r="J201" t="n">
-        <v>20560.34342505375</v>
+        <v>20957.83489999012</v>
       </c>
     </row>
     <row r="202">
@@ -6895,22 +6895,22 @@
         <v>1</v>
       </c>
       <c r="D202" t="n">
-        <v>9868.136735257704</v>
+        <v>10047.10107845001</v>
       </c>
       <c r="E202" t="n">
-        <v>21815</v>
+        <v>22234</v>
       </c>
       <c r="F202" t="n">
-        <v>973327.5900986763</v>
+        <v>992011.6890262954</v>
       </c>
       <c r="G202" t="n">
         <v>44.16499900817871</v>
       </c>
       <c r="H202" t="n">
-        <v>648.0256720180512</v>
+        <v>659.1287527687074</v>
       </c>
       <c r="I202" t="n">
-        <v>964107.4790354366</v>
+        <v>982623.7167006142</v>
       </c>
       <c r="J202" t="n">
         <v>0</v>
@@ -6927,22 +6927,22 @@
         <v>1</v>
       </c>
       <c r="D203" t="n">
-        <v>86.18997477338958</v>
+        <v>88.8285847442627</v>
       </c>
       <c r="E203" t="n">
-        <v>22036</v>
+        <v>22459</v>
       </c>
       <c r="F203" t="n">
-        <v>970882.176699627</v>
+        <v>989520.0804386871</v>
       </c>
       <c r="G203" t="n">
         <v>44.05500030517578</v>
       </c>
       <c r="H203" t="n">
-        <v>45.79169304046631</v>
+        <v>45.89742504119873</v>
       </c>
       <c r="I203" t="n">
-        <v>973889.425795921</v>
+        <v>992581.9891943199</v>
       </c>
       <c r="J203" t="n">
         <v>0</v>
@@ -6959,13 +6959,13 @@
         <v>0</v>
       </c>
       <c r="D204" t="n">
-        <v>86.18997477338958</v>
+        <v>88.8285847442627</v>
       </c>
       <c r="E204" t="n">
-        <v>22036</v>
+        <v>22459</v>
       </c>
       <c r="F204" t="n">
-        <v>980688.1899747734</v>
+        <v>999514.3285847442</v>
       </c>
       <c r="G204" t="n">
         <v>44.5</v>
@@ -6974,7 +6974,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="n">
-        <v>973889.425795921</v>
+        <v>992581.9891943199</v>
       </c>
       <c r="J204" t="n">
         <v>0</v>
@@ -6991,25 +6991,25 @@
         <v>-1</v>
       </c>
       <c r="D205" t="n">
-        <v>995445.7984517036</v>
+        <v>1014556.56481788</v>
       </c>
       <c r="E205" t="n">
         <v>0</v>
       </c>
       <c r="F205" t="n">
-        <v>995445.7984517036</v>
+        <v>1014556.56481788</v>
       </c>
       <c r="G205" t="n">
         <v>45.19999885559082</v>
       </c>
       <c r="H205" t="n">
-        <v>667.5663048690797</v>
+        <v>679.0380645786286</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
       <c r="J205" t="n">
-        <v>21470.18268100917</v>
+        <v>21885.74703881564</v>
       </c>
     </row>
     <row r="206">
@@ -7023,13 +7023,13 @@
         <v>0</v>
       </c>
       <c r="D206" t="n">
-        <v>995445.7984517036</v>
+        <v>1014556.56481788</v>
       </c>
       <c r="E206" t="n">
         <v>0</v>
       </c>
       <c r="F206" t="n">
-        <v>995445.7984517036</v>
+        <v>1014556.56481788</v>
       </c>
       <c r="G206" t="n">
         <v>45.57749938964844</v>
@@ -7055,13 +7055,13 @@
         <v>-1</v>
       </c>
       <c r="D207" t="n">
-        <v>995445.7984517036</v>
+        <v>1014556.56481788</v>
       </c>
       <c r="E207" t="n">
         <v>0</v>
       </c>
       <c r="F207" t="n">
-        <v>995445.7984517036</v>
+        <v>1014556.56481788</v>
       </c>
       <c r="G207" t="n">
         <v>45.55999946594238</v>
@@ -7087,13 +7087,13 @@
         <v>-1</v>
       </c>
       <c r="D208" t="n">
-        <v>995445.7984517036</v>
+        <v>1014556.56481788</v>
       </c>
       <c r="E208" t="n">
         <v>0</v>
       </c>
       <c r="F208" t="n">
-        <v>995445.7984517036</v>
+        <v>1014556.56481788</v>
       </c>
       <c r="G208" t="n">
         <v>45.125</v>
@@ -7119,13 +7119,13 @@
         <v>0</v>
       </c>
       <c r="D209" t="n">
-        <v>995445.7984517036</v>
+        <v>1014556.56481788</v>
       </c>
       <c r="E209" t="n">
         <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>995445.7984517036</v>
+        <v>1014556.56481788</v>
       </c>
       <c r="G209" t="n">
         <v>45.50250053405762</v>
@@ -7151,13 +7151,13 @@
         <v>-1</v>
       </c>
       <c r="D210" t="n">
-        <v>995445.7984517036</v>
+        <v>1014556.56481788</v>
       </c>
       <c r="E210" t="n">
         <v>0</v>
       </c>
       <c r="F210" t="n">
-        <v>995445.7984517036</v>
+        <v>1014556.56481788</v>
       </c>
       <c r="G210" t="n">
         <v>45.9424991607666</v>
@@ -7180,25 +7180,25 @@
         <v>44407</v>
       </c>
       <c r="C211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D211" t="n">
-        <v>995445.7984517036</v>
+        <v>10287.1048215404</v>
       </c>
       <c r="E211" t="n">
-        <v>0</v>
+        <v>22378</v>
       </c>
       <c r="F211" t="n">
-        <v>995445.7984517036</v>
+        <v>1013884.456406929</v>
       </c>
       <c r="G211" t="n">
         <v>44.84749984741211</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>672.1084109512329</v>
       </c>
       <c r="I211" t="n">
-        <v>0</v>
+        <v>1004269.459996339</v>
       </c>
       <c r="J211" t="n">
         <v>0</v>
@@ -7215,22 +7215,22 @@
         <v>1</v>
       </c>
       <c r="D212" t="n">
-        <v>10088.48525552977</v>
+        <v>101.3258687335447</v>
       </c>
       <c r="E212" t="n">
-        <v>22433</v>
+        <v>22609</v>
       </c>
       <c r="F212" t="n">
-        <v>994785.0305245422</v>
+        <v>992523.3912183124</v>
       </c>
       <c r="G212" t="n">
         <v>43.89500045776367</v>
       </c>
       <c r="H212" t="n">
-        <v>660.7679271614076</v>
+        <v>46.03384706344605</v>
       </c>
       <c r="I212" t="n">
-        <v>985357.3131961739</v>
+        <v>1014455.238949146</v>
       </c>
       <c r="J212" t="n">
         <v>0</v>
@@ -7247,22 +7247,22 @@
         <v>1</v>
       </c>
       <c r="D213" t="n">
-        <v>101.7879966258808</v>
+        <v>101.3258687335447</v>
       </c>
       <c r="E213" t="n">
-        <v>22656</v>
+        <v>22609</v>
       </c>
       <c r="F213" t="n">
-        <v>1010049.657381392</v>
+        <v>1007954.05269254</v>
       </c>
       <c r="G213" t="n">
         <v>44.57750129699707</v>
       </c>
       <c r="H213" t="n">
-        <v>45.91446967353821</v>
+        <v>0</v>
       </c>
       <c r="I213" t="n">
-        <v>995344.0104550777</v>
+        <v>1014455.238949146</v>
       </c>
       <c r="J213" t="n">
         <v>0</v>
@@ -7279,25 +7279,25 @@
         <v>-1</v>
       </c>
       <c r="D214" t="n">
-        <v>1025676.255720454</v>
+        <v>1023548.088453392</v>
       </c>
       <c r="E214" t="n">
         <v>0</v>
       </c>
       <c r="F214" t="n">
-        <v>1025676.255720454</v>
+        <v>1023548.088453392</v>
       </c>
       <c r="G214" t="n">
         <v>45.29750061035156</v>
       </c>
       <c r="H214" t="n">
-        <v>685.7061042968751</v>
+        <v>684.4287147796631</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
       <c r="J214" t="n">
-        <v>30230.45726875041</v>
+        <v>8991.523635512567</v>
       </c>
     </row>
     <row r="215">
@@ -7311,13 +7311,13 @@
         <v>0</v>
       </c>
       <c r="D215" t="n">
-        <v>1025676.255720454</v>
+        <v>1023548.088453392</v>
       </c>
       <c r="E215" t="n">
         <v>0</v>
       </c>
       <c r="F215" t="n">
-        <v>1025676.255720454</v>
+        <v>1023548.088453392</v>
       </c>
       <c r="G215" t="n">
         <v>45.07250022888184</v>
@@ -7343,13 +7343,13 @@
         <v>0</v>
       </c>
       <c r="D216" t="n">
-        <v>1025676.255720454</v>
+        <v>1023548.088453392</v>
       </c>
       <c r="E216" t="n">
         <v>0</v>
       </c>
       <c r="F216" t="n">
-        <v>1025676.255720454</v>
+        <v>1023548.088453392</v>
       </c>
       <c r="G216" t="n">
         <v>44.84000015258789</v>
@@ -7375,22 +7375,22 @@
         <v>1</v>
       </c>
       <c r="D217" t="n">
-        <v>10396.92803286401</v>
+        <v>10370.92134168202</v>
       </c>
       <c r="E217" t="n">
-        <v>22698</v>
+        <v>22651</v>
       </c>
       <c r="F217" t="n">
-        <v>1024997.545350064</v>
+        <v>1022870.638623024</v>
       </c>
       <c r="G217" t="n">
         <v>44.70000076293945</v>
       </c>
       <c r="H217" t="n">
-        <v>678.7103703903199</v>
+        <v>677.449830368805</v>
       </c>
       <c r="I217" t="n">
-        <v>1015279.32768759</v>
+        <v>1013177.16711171</v>
       </c>
       <c r="J217" t="n">
         <v>0</v>
@@ -7407,13 +7407,13 @@
         <v>0</v>
       </c>
       <c r="D218" t="n">
-        <v>10396.92803286401</v>
+        <v>10370.92134168202</v>
       </c>
       <c r="E218" t="n">
-        <v>22698</v>
+        <v>22651</v>
       </c>
       <c r="F218" t="n">
-        <v>1033339.023983944</v>
+        <v>1031194.844832206</v>
       </c>
       <c r="G218" t="n">
         <v>45.0674991607666</v>
@@ -7422,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="n">
-        <v>1015279.32768759</v>
+        <v>1013177.16711171</v>
       </c>
       <c r="J218" t="n">
         <v>0</v>
@@ -7439,25 +7439,25 @@
         <v>-1</v>
       </c>
       <c r="D219" t="n">
-        <v>1033562.704742545</v>
+        <v>1031417.917579279</v>
       </c>
       <c r="E219" t="n">
         <v>0</v>
       </c>
       <c r="F219" t="n">
-        <v>1033562.704742545</v>
+        <v>1031417.917579279</v>
       </c>
       <c r="G219" t="n">
         <v>45.10750007629395</v>
       </c>
       <c r="H219" t="n">
-        <v>684.260022039032</v>
+        <v>682.9879905368805</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
       <c r="J219" t="n">
-        <v>7886.449022090877</v>
+        <v>7869.829125886899</v>
       </c>
     </row>
     <row r="220">
@@ -7471,13 +7471,13 @@
         <v>0</v>
       </c>
       <c r="D220" t="n">
-        <v>1033562.704742545</v>
+        <v>1031417.917579279</v>
       </c>
       <c r="E220" t="n">
         <v>0</v>
       </c>
       <c r="F220" t="n">
-        <v>1033562.704742545</v>
+        <v>1031417.917579279</v>
       </c>
       <c r="G220" t="n">
         <v>45.34250068664551</v>
@@ -7503,13 +7503,13 @@
         <v>-1</v>
       </c>
       <c r="D221" t="n">
-        <v>1033562.704742545</v>
+        <v>1031417.917579279</v>
       </c>
       <c r="E221" t="n">
         <v>0</v>
       </c>
       <c r="F221" t="n">
-        <v>1033562.704742545</v>
+        <v>1031417.917579279</v>
       </c>
       <c r="G221" t="n">
         <v>46.06499862670898</v>
@@ -7535,13 +7535,13 @@
         <v>0</v>
       </c>
       <c r="D222" t="n">
-        <v>1033562.704742545</v>
+        <v>1031417.917579279</v>
       </c>
       <c r="E222" t="n">
         <v>0</v>
       </c>
       <c r="F222" t="n">
-        <v>1033562.704742545</v>
+        <v>1031417.917579279</v>
       </c>
       <c r="G222" t="n">
         <v>46.21999931335449</v>
@@ -7567,13 +7567,13 @@
         <v>0</v>
       </c>
       <c r="D223" t="n">
-        <v>1033562.704742545</v>
+        <v>1031417.917579279</v>
       </c>
       <c r="E223" t="n">
         <v>0</v>
       </c>
       <c r="F223" t="n">
-        <v>1033562.704742545</v>
+        <v>1031417.917579279</v>
       </c>
       <c r="G223" t="n">
         <v>46.69499969482422</v>
@@ -7599,13 +7599,13 @@
         <v>-1</v>
       </c>
       <c r="D224" t="n">
-        <v>1033562.704742545</v>
+        <v>1031417.917579279</v>
       </c>
       <c r="E224" t="n">
         <v>0</v>
       </c>
       <c r="F224" t="n">
-        <v>1033562.704742545</v>
+        <v>1031417.917579279</v>
       </c>
       <c r="G224" t="n">
         <v>47.22000122070312</v>
@@ -7631,13 +7631,13 @@
         <v>0</v>
       </c>
       <c r="D225" t="n">
-        <v>1033562.704742545</v>
+        <v>1031417.917579279</v>
       </c>
       <c r="E225" t="n">
         <v>0</v>
       </c>
       <c r="F225" t="n">
-        <v>1033562.704742545</v>
+        <v>1031417.917579279</v>
       </c>
       <c r="G225" t="n">
         <v>46.20999908447266</v>
@@ -7663,22 +7663,22 @@
         <v>1</v>
       </c>
       <c r="D226" t="n">
-        <v>10472.47233695104</v>
+        <v>10442.88352817378</v>
       </c>
       <c r="E226" t="n">
-        <v>22248</v>
+        <v>22202</v>
       </c>
       <c r="F226" t="n">
-        <v>1032879.310639563</v>
+        <v>1030735.791834296</v>
       </c>
       <c r="G226" t="n">
         <v>45.95499992370605</v>
       </c>
       <c r="H226" t="n">
-        <v>683.3941029815675</v>
+        <v>682.1257449836731</v>
       </c>
       <c r="I226" t="n">
-        <v>1023090.232405594</v>
+        <v>1020975.034051105</v>
       </c>
       <c r="J226" t="n">
         <v>0</v>
@@ -7695,13 +7695,13 @@
         <v>1</v>
       </c>
       <c r="D227" t="n">
-        <v>97.21984005620472</v>
+        <v>67.63103127894466</v>
       </c>
       <c r="E227" t="n">
-        <v>22470</v>
+        <v>22424</v>
       </c>
       <c r="F227" t="n">
-        <v>1045570.148268706</v>
+        <v>1043400.29445291</v>
       </c>
       <c r="G227" t="n">
         <v>46.52750015258789</v>
@@ -7710,7 +7710,7 @@
         <v>46.14746302032471</v>
       </c>
       <c r="I227" t="n">
-        <v>1033465.484902489</v>
+        <v>1031350.286548</v>
       </c>
       <c r="J227" t="n">
         <v>0</v>
@@ -7727,22 +7727,22 @@
         <v>1</v>
       </c>
       <c r="D228" t="n">
-        <v>97.21984005620472</v>
+        <v>8.086030897474934</v>
       </c>
       <c r="E228" t="n">
-        <v>22470</v>
+        <v>22425</v>
       </c>
       <c r="F228" t="n">
-        <v>1044390.478411681</v>
+        <v>1042209.969585356</v>
       </c>
       <c r="G228" t="n">
         <v>46.47500038146973</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>13.07</v>
       </c>
       <c r="I228" t="n">
-        <v>1033465.484902489</v>
+        <v>1031409.831548382</v>
       </c>
       <c r="J228" t="n">
         <v>0</v>
@@ -7759,13 +7759,13 @@
         <v>1</v>
       </c>
       <c r="D229" t="n">
-        <v>97.21984005620472</v>
+        <v>8.086030897474934</v>
       </c>
       <c r="E229" t="n">
-        <v>22470</v>
+        <v>22425</v>
       </c>
       <c r="F229" t="n">
-        <v>1031077.03084088</v>
+        <v>1028923.184459624</v>
       </c>
       <c r="G229" t="n">
         <v>45.88250160217285</v>
@@ -7774,7 +7774,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="n">
-        <v>1033465.484902489</v>
+        <v>1031409.831548382</v>
       </c>
       <c r="J229" t="n">
         <v>0</v>
@@ -7791,13 +7791,13 @@
         <v>1</v>
       </c>
       <c r="D230" t="n">
-        <v>97.21984005620472</v>
+        <v>8.086030897474934</v>
       </c>
       <c r="E230" t="n">
-        <v>22470</v>
+        <v>22425</v>
       </c>
       <c r="F230" t="n">
-        <v>1014730.042410857</v>
+        <v>1012608.93365663</v>
       </c>
       <c r="G230" t="n">
         <v>45.15499877929688</v>
@@ -7806,7 +7806,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="n">
-        <v>1033465.484902489</v>
+        <v>1031409.831548382</v>
       </c>
       <c r="J230" t="n">
         <v>0</v>
@@ -7823,13 +7823,13 @@
         <v>1</v>
       </c>
       <c r="D231" t="n">
-        <v>97.21984005620472</v>
+        <v>8.086030897474934</v>
       </c>
       <c r="E231" t="n">
-        <v>22470</v>
+        <v>22425</v>
       </c>
       <c r="F231" t="n">
-        <v>1010067.549983031</v>
+        <v>1007955.778663573</v>
       </c>
       <c r="G231" t="n">
         <v>44.94750022888184</v>
@@ -7838,7 +7838,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="n">
-        <v>1033465.484902489</v>
+        <v>1031409.831548382</v>
       </c>
       <c r="J231" t="n">
         <v>0</v>
@@ -7855,25 +7855,25 @@
         <v>-1</v>
       </c>
       <c r="D232" t="n">
-        <v>1005574.008011649</v>
+        <v>1003471.095688128</v>
       </c>
       <c r="E232" t="n">
         <v>0</v>
       </c>
       <c r="F232" t="n">
-        <v>1005574.008011649</v>
+        <v>1003471.095688128</v>
       </c>
       <c r="G232" t="n">
         <v>44.77750015258789</v>
       </c>
       <c r="H232" t="n">
-        <v>673.64025705719</v>
+        <v>672.4312645530702</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
       <c r="J232" t="n">
-        <v>-27988.6967308959</v>
+        <v>-27946.82189115137</v>
       </c>
     </row>
     <row r="233">
@@ -7887,22 +7887,22 @@
         <v>1</v>
       </c>
       <c r="D233" t="n">
-        <v>10206.90443569267</v>
+        <v>10187.22374067601</v>
       </c>
       <c r="E233" t="n">
-        <v>22455</v>
+        <v>22408</v>
       </c>
       <c r="F233" t="n">
-        <v>1004907.237811623</v>
+        <v>1002805.574677566</v>
       </c>
       <c r="G233" t="n">
         <v>44.29749870300293</v>
       </c>
       <c r="H233" t="n">
-        <v>666.7702000255586</v>
+        <v>665.5210105621338</v>
       </c>
       <c r="I233" t="n">
-        <v>995367.1035759563</v>
+        <v>993283.8719474517</v>
       </c>
       <c r="J233" t="n">
         <v>0</v>
@@ -7919,25 +7919,25 @@
         <v>-1</v>
       </c>
       <c r="D234" t="n">
-        <v>1006709.049278819</v>
+        <v>1004603.468407555</v>
       </c>
       <c r="E234" t="n">
         <v>0</v>
       </c>
       <c r="F234" t="n">
-        <v>1006709.049278819</v>
+        <v>1004603.468407555</v>
       </c>
       <c r="G234" t="n">
         <v>44.40749931335449</v>
       </c>
       <c r="H234" t="n">
-        <v>668.2522382488251</v>
+        <v>666.9999467681885</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
       <c r="J234" t="n">
-        <v>1135.041267169989</v>
+        <v>1132.372719427571</v>
       </c>
     </row>
     <row r="235">
@@ -7951,13 +7951,13 @@
         <v>0</v>
       </c>
       <c r="D235" t="n">
-        <v>1006709.049278819</v>
+        <v>1004603.468407555</v>
       </c>
       <c r="E235" t="n">
         <v>0</v>
       </c>
       <c r="F235" t="n">
-        <v>1006709.049278819</v>
+        <v>1004603.468407555</v>
       </c>
       <c r="G235" t="n">
         <v>43.96000099182129</v>
@@ -7983,13 +7983,13 @@
         <v>-1</v>
       </c>
       <c r="D236" t="n">
-        <v>1006709.049278819</v>
+        <v>1004603.468407555</v>
       </c>
       <c r="E236" t="n">
         <v>0</v>
       </c>
       <c r="F236" t="n">
-        <v>1006709.049278819</v>
+        <v>1004603.468407555</v>
       </c>
       <c r="G236" t="n">
         <v>43.84000015258789</v>
@@ -8015,13 +8015,13 @@
         <v>0</v>
       </c>
       <c r="D237" t="n">
-        <v>1006709.049278819</v>
+        <v>1004603.468407555</v>
       </c>
       <c r="E237" t="n">
         <v>0</v>
       </c>
       <c r="F237" t="n">
-        <v>1006709.049278819</v>
+        <v>1004603.468407555</v>
       </c>
       <c r="G237" t="n">
         <v>43.8125</v>
@@ -8047,13 +8047,13 @@
         <v>0</v>
       </c>
       <c r="D238" t="n">
-        <v>1006709.049278819</v>
+        <v>1004603.468407555</v>
       </c>
       <c r="E238" t="n">
         <v>0</v>
       </c>
       <c r="F238" t="n">
-        <v>1006709.049278819</v>
+        <v>1004603.468407555</v>
       </c>
       <c r="G238" t="n">
         <v>43.48250007629395</v>
@@ -8079,13 +8079,13 @@
         <v>-1</v>
       </c>
       <c r="D239" t="n">
-        <v>1006709.049278819</v>
+        <v>1004603.468407555</v>
       </c>
       <c r="E239" t="n">
         <v>0</v>
       </c>
       <c r="F239" t="n">
-        <v>1006709.049278819</v>
+        <v>1004603.468407555</v>
       </c>
       <c r="G239" t="n">
         <v>43.00250053405762</v>
@@ -8111,13 +8111,13 @@
         <v>-1</v>
       </c>
       <c r="D240" t="n">
-        <v>1006709.049278819</v>
+        <v>1004603.468407555</v>
       </c>
       <c r="E240" t="n">
         <v>0</v>
       </c>
       <c r="F240" t="n">
-        <v>1006709.049278819</v>
+        <v>1004603.468407555</v>
       </c>
       <c r="G240" t="n">
         <v>42.60750007629395</v>
@@ -8143,13 +8143,13 @@
         <v>0</v>
       </c>
       <c r="D241" t="n">
-        <v>1006709.049278819</v>
+        <v>1004603.468407555</v>
       </c>
       <c r="E241" t="n">
         <v>0</v>
       </c>
       <c r="F241" t="n">
-        <v>1006709.049278819</v>
+        <v>1004603.468407555</v>
       </c>
       <c r="G241" t="n">
         <v>41.90749931335449</v>
@@ -8175,22 +8175,22 @@
         <v>1</v>
       </c>
       <c r="D242" t="n">
-        <v>10211.21005301334</v>
+        <v>10160.20612889936</v>
       </c>
       <c r="E242" t="n">
-        <v>23764</v>
+        <v>23715</v>
       </c>
       <c r="F242" t="n">
-        <v>1006041.601044224</v>
+        <v>1003937.252179925</v>
       </c>
       <c r="G242" t="n">
         <v>41.90499877929688</v>
       </c>
       <c r="H242" t="n">
-        <v>667.4482345947266</v>
+        <v>666.2162276306153</v>
       </c>
       <c r="I242" t="n">
-        <v>996497.8392258057</v>
+        <v>994443.262278656</v>
       </c>
       <c r="J242" t="n">
         <v>0</v>
@@ -8207,13 +8207,13 @@
         <v>0</v>
       </c>
       <c r="D243" t="n">
-        <v>10211.21005301334</v>
+        <v>10160.20612889936</v>
       </c>
       <c r="E243" t="n">
-        <v>23764</v>
+        <v>23715</v>
       </c>
       <c r="F243" t="n">
-        <v>1004437.596314</v>
+        <v>1002336.554815118</v>
       </c>
       <c r="G243" t="n">
         <v>41.83750152587891</v>
@@ -8222,7 +8222,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="n">
-        <v>996497.8392258057</v>
+        <v>994443.262278656</v>
       </c>
       <c r="J243" t="n">
         <v>0</v>
@@ -8239,25 +8239,25 @@
         <v>-1</v>
       </c>
       <c r="D244" t="n">
-        <v>994805.5250454755</v>
+        <v>992724.2000901954</v>
       </c>
       <c r="E244" t="n">
         <v>0</v>
       </c>
       <c r="F244" t="n">
-        <v>994805.5250454755</v>
+        <v>992724.2000901954</v>
       </c>
       <c r="G244" t="n">
         <v>41.45999908447266</v>
       </c>
       <c r="H244" t="n">
-        <v>661.1032509460449</v>
+        <v>659.8843269729615</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
       <c r="J244" t="n">
-        <v>-11903.52423334355</v>
+        <v>-11879.26831735997</v>
       </c>
     </row>
     <row r="245">
@@ -8271,13 +8271,13 @@
         <v>-1</v>
       </c>
       <c r="D245" t="n">
-        <v>994805.5250454755</v>
+        <v>992724.2000901954</v>
       </c>
       <c r="E245" t="n">
         <v>0</v>
       </c>
       <c r="F245" t="n">
-        <v>994805.5250454755</v>
+        <v>992724.2000901954</v>
       </c>
       <c r="G245" t="n">
         <v>41.07999992370605</v>
@@ -8303,13 +8303,13 @@
         <v>-1</v>
       </c>
       <c r="D246" t="n">
-        <v>994805.5250454755</v>
+        <v>992724.2000901954</v>
       </c>
       <c r="E246" t="n">
         <v>0</v>
       </c>
       <c r="F246" t="n">
-        <v>994805.5250454755</v>
+        <v>992724.2000901954</v>
       </c>
       <c r="G246" t="n">
         <v>41.07749938964844</v>
@@ -8335,22 +8335,22 @@
         <v>1</v>
       </c>
       <c r="D247" t="n">
-        <v>10068.54401141784</v>
+        <v>10041.96613399118</v>
       </c>
       <c r="E247" t="n">
-        <v>24440</v>
+        <v>24389</v>
       </c>
       <c r="F247" t="n">
-        <v>994145.1290944257</v>
+        <v>992065.0362481269</v>
       </c>
       <c r="G247" t="n">
         <v>40.26499938964844</v>
       </c>
       <c r="H247" t="n">
-        <v>660.3959510498048</v>
+        <v>659.1638420684815</v>
       </c>
       <c r="I247" t="n">
-        <v>984736.9810340576</v>
+        <v>982682.2339562043</v>
       </c>
       <c r="J247" t="n">
         <v>0</v>
@@ -8367,13 +8367,13 @@
         <v>1</v>
       </c>
       <c r="D248" t="n">
-        <v>101.8513342015009</v>
+        <v>75.27345677483902</v>
       </c>
       <c r="E248" t="n">
-        <v>24682</v>
+        <v>24631</v>
       </c>
       <c r="F248" t="n">
-        <v>1011940.46204816</v>
+        <v>1009823.139127933</v>
       </c>
       <c r="G248" t="n">
         <v>40.9950008392334</v>
@@ -8382,7 +8382,7 @@
         <v>45.90247412185669</v>
       </c>
       <c r="I248" t="n">
-        <v>994703.6737112739</v>
+        <v>992648.9266334206</v>
       </c>
       <c r="J248" t="n">
         <v>0</v>
@@ -8399,25 +8399,25 @@
         <v>-1</v>
       </c>
       <c r="D249" t="n">
-        <v>1030072.113637372</v>
+        <v>1027917.181055</v>
       </c>
       <c r="E249" t="n">
         <v>0</v>
       </c>
       <c r="F249" t="n">
-        <v>1030072.113637372</v>
+        <v>1027917.181055</v>
       </c>
       <c r="G249" t="n">
         <v>41.75749969482422</v>
       </c>
       <c r="H249" t="n">
-        <v>688.3451644805908</v>
+        <v>687.0673849899292</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
       <c r="J249" t="n">
-        <v>35266.58859189681</v>
+        <v>35192.98096480477</v>
       </c>
     </row>
     <row r="250">
@@ -8431,13 +8431,13 @@
         <v>0</v>
       </c>
       <c r="D250" t="n">
-        <v>1030072.113637372</v>
+        <v>1027917.181055</v>
       </c>
       <c r="E250" t="n">
         <v>0</v>
       </c>
       <c r="F250" t="n">
-        <v>1030072.113637372</v>
+        <v>1027917.181055</v>
       </c>
       <c r="G250" t="n">
         <v>41.59999847412109</v>
@@ -8463,13 +8463,13 @@
         <v>-1</v>
       </c>
       <c r="D251" t="n">
-        <v>1030072.113637372</v>
+        <v>1027917.181055</v>
       </c>
       <c r="E251" t="n">
         <v>0</v>
       </c>
       <c r="F251" t="n">
-        <v>1030072.113637372</v>
+        <v>1027917.181055</v>
       </c>
       <c r="G251" t="n">
         <v>41.1875</v>
@@ -8495,22 +8495,22 @@
         <v>1</v>
       </c>
       <c r="D252" t="n">
-        <v>10426.78460947806</v>
+        <v>10432.05736913641</v>
       </c>
       <c r="E252" t="n">
-        <v>24543</v>
+        <v>24491</v>
       </c>
       <c r="F252" t="n">
-        <v>1029390.785236996</v>
+        <v>1027237.148000621</v>
       </c>
       <c r="G252" t="n">
         <v>41.51749992370605</v>
       </c>
       <c r="H252" t="n">
-        <v>681.3284003765107</v>
+        <v>680.0330543788911</v>
       </c>
       <c r="I252" t="n">
-        <v>1019645.329027894</v>
+        <v>1017485.123685864</v>
       </c>
       <c r="J252" t="n">
         <v>0</v>
@@ -8527,25 +8527,25 @@
         <v>-1</v>
       </c>
       <c r="D253" t="n">
-        <v>1028402.881479501</v>
+        <v>1026251.189139651</v>
       </c>
       <c r="E253" t="n">
         <v>0</v>
       </c>
       <c r="F253" t="n">
-        <v>1028402.881479501</v>
+        <v>1026251.189139651</v>
       </c>
       <c r="G253" t="n">
         <v>41.50500106811523</v>
       </c>
       <c r="H253" t="n">
-        <v>681.1443447288514</v>
+        <v>679.8493886955262</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
       <c r="J253" t="n">
-        <v>-1669.232157870894</v>
+        <v>-1665.991915349266</v>
       </c>
     </row>
     <row r="254">
@@ -8559,13 +8559,13 @@
         <v>0</v>
       </c>
       <c r="D254" t="n">
-        <v>1028402.881479501</v>
+        <v>1026251.189139651</v>
       </c>
       <c r="E254" t="n">
         <v>0</v>
       </c>
       <c r="F254" t="n">
-        <v>1028402.881479501</v>
+        <v>1026251.189139651</v>
       </c>
       <c r="G254" t="n">
         <v>41.1875</v>
@@ -8591,22 +8591,22 @@
         <v>1</v>
       </c>
       <c r="D255" t="n">
-        <v>10425.56451289142</v>
+        <v>10390.62143768111</v>
       </c>
       <c r="E255" t="n">
-        <v>24525</v>
+        <v>24474</v>
       </c>
       <c r="F255" t="n">
-        <v>1027722.553286237</v>
+        <v>1025572.130234373</v>
       </c>
       <c r="G255" t="n">
         <v>41.47999954223633</v>
       </c>
       <c r="H255" t="n">
-        <v>680.3281932640076</v>
+        <v>679.0589052780151</v>
       </c>
       <c r="I255" t="n">
-        <v>1017977.31696661</v>
+        <v>1015860.56770197</v>
       </c>
       <c r="J255" t="n">
         <v>0</v>
